--- a/list_first.xlsx
+++ b/list_first.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -254,344 +254,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>号簿助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随E聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音律工坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺旺备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随身日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史大搜查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微邮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微调音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音音小助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码小助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫扫小助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bright.cmcc.utils.createqr</t>
+  </si>
+  <si>
+    <t>制作二维码</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.utils.createqr2</t>
+  </si>
+  <si>
+    <t>IP地址查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bright.cmcc.utils.ipquery</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.utils.ipquery2</t>
+  </si>
+  <si>
+    <t>二维码扫描</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.utils.scanqr</t>
+  </si>
+  <si>
+    <t>扫一扫</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.utils.scanqr2</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.flashlight</t>
+  </si>
+  <si>
+    <t>透明闪光灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bright.cmcc.flashlight2</t>
+  </si>
+  <si>
+    <t>手心备忘</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.note3</t>
+  </si>
+  <si>
+    <t>签名获取工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bright.cmcc.signature</t>
+  </si>
+  <si>
+    <t>简备</t>
+  </si>
+  <si>
+    <t>com.bright.tools.backup</t>
+  </si>
+  <si>
+    <t>简易浏览器</t>
+  </si>
+  <si>
+    <t>com.bright.browse</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.browse2</t>
+  </si>
+  <si>
+    <t>懒人便签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bright.cmcc.notes</t>
+  </si>
+  <si>
+    <t>随手记</t>
+  </si>
+  <si>
+    <t>com.bright.cmcc.note2</t>
+  </si>
+  <si>
+    <t>身份证通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util.cmcc.johndon.com.icard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util.cmcc.johndon.com.ipost1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone.util.cmcc.johndon.com.phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码百事通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone.util.cmcc.johndon.com.phonenumber1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史上的今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm.john.cmcc.util.today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调音器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.cmcc.tiaoyinqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小贴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.cmcc.powernotes1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名获取工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.notepad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随身记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.notepad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util.cmcc.johndon.com.icard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util.cmcc.johndon.com.ipost1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone.util.cmcc.johndon.com.phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码百事通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone.util.cmcc.johndon.com.phonenumber1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名获取工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记事本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.cmcc.notebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调音通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.cmcc.tiaoyinqi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调音通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.cmcc.tiaoyinqi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.johndon.cmcc.notebook1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone.util.cmcc.johndon.com.phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码百事通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone.util.cmcc.johndon.com.phonenumber1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应原有应用名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP知位置</t>
+  </si>
+  <si>
+    <t>SOS手电筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pure浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">506440749@qq.com </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678$aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>桌面备忘录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号簿助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随E聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音律工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悠音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺旺备忘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EASY浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随身日记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史大搜查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微邮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微调音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音音小助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码小助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫扫小助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bright.cmcc.utils.createqr</t>
-  </si>
-  <si>
-    <t>制作二维码</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.utils.createqr2</t>
-  </si>
-  <si>
-    <t>IP地址查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bright.cmcc.utils.ipquery</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.utils.ipquery2</t>
-  </si>
-  <si>
-    <t>二维码扫描</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.utils.scanqr</t>
-  </si>
-  <si>
-    <t>扫一扫</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.utils.scanqr2</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.flashlight</t>
-  </si>
-  <si>
-    <t>透明闪光灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bright.cmcc.flashlight2</t>
-  </si>
-  <si>
-    <t>手心备忘</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.note3</t>
-  </si>
-  <si>
-    <t>签名获取工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bright.cmcc.signature</t>
-  </si>
-  <si>
-    <t>简备</t>
-  </si>
-  <si>
-    <t>com.bright.tools.backup</t>
-  </si>
-  <si>
-    <t>简易浏览器</t>
-  </si>
-  <si>
-    <t>com.bright.browse</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.browse2</t>
-  </si>
-  <si>
-    <t>懒人便签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bright.cmcc.notes</t>
-  </si>
-  <si>
-    <t>随手记</t>
-  </si>
-  <si>
-    <t>com.bright.cmcc.note2</t>
-  </si>
-  <si>
-    <t>身份证通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util.cmcc.johndon.com.icard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util.cmcc.johndon.com.ipost1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone.util.cmcc.johndon.com.phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码百事通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone.util.cmcc.johndon.com.phonenumber1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史上的今天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm.john.cmcc.util.today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调音器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.cmcc.tiaoyinqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小贴士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.cmcc.powernotes1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名获取工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.notepad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随身记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.notepad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util.cmcc.johndon.com.icard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util.cmcc.johndon.com.ipost1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone.util.cmcc.johndon.com.phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码百事通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone.util.cmcc.johndon.com.phonenumber1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名获取工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记事本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.cmcc.notebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调音通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.cmcc.tiaoyinqi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调音通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.cmcc.tiaoyinqi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.johndon.cmcc.notebook1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone.util.cmcc.johndon.com.phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码百事通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone.util.cmcc.johndon.com.phonenumber1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应原有应用名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP知位置</t>
-  </si>
-  <si>
-    <t>SOS手电筒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pure浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">506440749@qq.com </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678$aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +679,33 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="4"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -817,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -880,6 +907,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -891,6 +931,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -939,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -972,9 +1015,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,6 +1067,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1186,8 +1263,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1199,10 +1276,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1210,10 +1287,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1221,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1232,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1243,10 +1320,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1254,10 +1331,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
@@ -1265,10 +1342,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1276,10 +1353,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1287,10 +1364,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1298,10 +1375,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1309,10 +1386,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1320,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1331,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1342,10 +1419,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
@@ -1353,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1364,10 +1441,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1375,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1386,54 +1463,54 @@
         <v>54</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="20" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    </row>
+    <row r="21" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="22" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1441,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1452,10 +1529,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1463,10 +1540,10 @@
         <v>32</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1474,10 +1551,10 @@
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1485,21 +1562,21 @@
         <v>11</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="10" t="s">
+    </row>
+    <row r="28" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1507,10 +1584,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1518,10 +1595,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1529,10 +1606,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -1540,10 +1617,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -1551,10 +1628,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -1562,43 +1639,43 @@
         <v>55</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1606,10 +1683,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1617,10 +1694,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
@@ -1628,10 +1705,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -1639,21 +1716,21 @@
         <v>34</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.25" hidden="1">
@@ -1661,10 +1738,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.25" hidden="1">
@@ -1672,10 +1749,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" hidden="1">
@@ -1683,10 +1760,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.25" hidden="1">
@@ -1694,10 +1771,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.25" hidden="1">
@@ -1705,10 +1782,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" hidden="1">
@@ -1716,10 +1793,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17.25" hidden="1">
@@ -1727,10 +1804,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.25" hidden="1">
@@ -1738,10 +1815,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17.25" hidden="1">
@@ -1749,10 +1826,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17.25" hidden="1">
@@ -1760,10 +1837,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.25">
@@ -1771,10 +1848,10 @@
         <v>28</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.25">
@@ -1782,10 +1859,10 @@
         <v>29</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.25">
@@ -1793,10 +1870,10 @@
         <v>24</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.25">
@@ -1804,10 +1881,10 @@
         <v>30</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.25">
@@ -1815,10 +1892,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.25" hidden="1">
@@ -1826,10 +1903,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21" hidden="1" customHeight="1">
@@ -1837,21 +1914,21 @@
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.25">
       <c r="A60" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.25">
@@ -1859,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.25">
@@ -1870,10 +1947,10 @@
         <v>16</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.25">
@@ -1881,43 +1958,43 @@
         <v>53</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" thickBot="1">
       <c r="A64" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17.25">
       <c r="A65" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17.25" hidden="1">
       <c r="A66" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="20" customFormat="1" ht="17.25">
@@ -1925,10 +2002,10 @@
         <v>22</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="20" customFormat="1" ht="17.25">
@@ -1936,10 +2013,10 @@
         <v>14</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="20" customFormat="1" ht="17.25">
@@ -1947,21 +2024,21 @@
         <v>51</v>
       </c>
       <c r="B69" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="20" customFormat="1" ht="17.25">
       <c r="A70" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17.25">
@@ -1969,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17.25">
@@ -1980,37 +2057,37 @@
         <v>15</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17.25">
       <c r="A73" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" hidden="1" thickBot="1">
       <c r="A74" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.5">
       <c r="A75" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2055,6 +2132,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2068,6 +2148,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/list_first.xlsx
+++ b/list_first.xlsx
@@ -844,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -920,6 +920,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1263,8 +1272,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1612,69 +1621,69 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1711,25 +1720,25 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A42" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="29" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2041,36 +2050,36 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17.25">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:3" s="26" customFormat="1" ht="17.25">
+      <c r="A71" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17.25">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:3" s="26" customFormat="1" ht="17.25">
+      <c r="A72" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.25">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:3" s="26" customFormat="1" ht="17.25">
+      <c r="A73" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="25" t="s">
         <v>120</v>
       </c>
     </row>

--- a/list_first.xlsx
+++ b/list_first.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
   <si>
     <t>Make Make QR Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,13 +584,21 @@
   </si>
   <si>
     <t>桌面备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -991,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,26 +1032,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1076,23 +1067,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1270,17 +1244,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E34" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1632,7 +1606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>25</v>
       </c>
@@ -1643,7 +1617,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="27" t="s">
         <v>55</v>
       </c>
@@ -1654,7 +1628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="27" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="27" t="s">
         <v>67</v>
       </c>
@@ -1676,7 +1650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="27" t="s">
         <v>68</v>
       </c>
@@ -1687,7 +1661,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="38" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>17</v>
       </c>
@@ -1698,7 +1672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="39" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>35</v>
       </c>
@@ -1709,7 +1683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="40" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
@@ -1720,7 +1694,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="23" t="s">
         <v>34</v>
       </c>
@@ -1731,7 +1705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="1:4" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="27" t="s">
         <v>61</v>
       </c>
@@ -1741,8 +1715,11 @@
       <c r="C42" s="29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25" hidden="1">
+      <c r="D42" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" hidden="1">
       <c r="A43" s="11" t="s">
         <v>41</v>
       </c>
@@ -1753,7 +1730,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.25" hidden="1">
+    <row r="44" spans="1:4" ht="17.25" hidden="1">
       <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
@@ -1764,7 +1741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17.25" hidden="1">
+    <row r="45" spans="1:4" ht="17.25" hidden="1">
       <c r="A45" s="12" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +1752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.25" hidden="1">
+    <row r="46" spans="1:4" ht="17.25" hidden="1">
       <c r="A46" s="12" t="s">
         <v>44</v>
       </c>
@@ -1786,7 +1763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.25" hidden="1">
+    <row r="47" spans="1:4" ht="17.25" hidden="1">
       <c r="A47" s="12" t="s">
         <v>45</v>
       </c>
@@ -1797,7 +1774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.25" hidden="1">
+    <row r="48" spans="1:4" ht="17.25" hidden="1">
       <c r="A48" s="12" t="s">
         <v>46</v>
       </c>
@@ -1984,7 +1961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17.25">
+    <row r="65" spans="1:4" ht="17.25">
       <c r="A65" s="12" t="s">
         <v>69</v>
       </c>
@@ -1995,7 +1972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17.25" hidden="1">
+    <row r="66" spans="1:4" ht="17.25" hidden="1">
       <c r="A66" s="12" t="s">
         <v>63</v>
       </c>
@@ -2006,7 +1983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="20" customFormat="1" ht="17.25">
+    <row r="67" spans="1:4" s="20" customFormat="1" ht="17.25">
       <c r="A67" s="17" t="s">
         <v>22</v>
       </c>
@@ -2016,8 +1993,11 @@
       <c r="C67" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" s="20" customFormat="1" ht="17.25">
+      <c r="D67" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="20" customFormat="1" ht="17.25">
       <c r="A68" s="17" t="s">
         <v>14</v>
       </c>
@@ -2027,8 +2007,11 @@
       <c r="C68" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="20" customFormat="1" ht="17.25">
+      <c r="D68" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="20" customFormat="1" ht="17.25">
       <c r="A69" s="21" t="s">
         <v>51</v>
       </c>
@@ -2038,8 +2021,11 @@
       <c r="C69" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" s="20" customFormat="1" ht="17.25">
+      <c r="D69" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="20" customFormat="1" ht="17.25">
       <c r="A70" s="21" t="s">
         <v>144</v>
       </c>
@@ -2049,8 +2035,11 @@
       <c r="C70" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="26" customFormat="1" ht="17.25">
+      <c r="D70" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="26" customFormat="1" ht="17.25">
       <c r="A71" s="30" t="s">
         <v>6</v>
       </c>
@@ -2060,8 +2049,11 @@
       <c r="C71" s="25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" s="26" customFormat="1" ht="17.25">
+      <c r="D71" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="26" customFormat="1" ht="17.25">
       <c r="A72" s="30" t="s">
         <v>15</v>
       </c>
@@ -2071,8 +2063,11 @@
       <c r="C72" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="26" customFormat="1" ht="17.25">
+      <c r="D72" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="26" customFormat="1" ht="17.25">
       <c r="A73" s="27" t="s">
         <v>66</v>
       </c>
@@ -2082,8 +2077,11 @@
       <c r="C73" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" hidden="1" thickBot="1">
+      <c r="D73" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18" hidden="1" thickBot="1">
       <c r="A74" s="14" t="s">
         <v>70</v>
       </c>
@@ -2094,12 +2092,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.5">
+    <row r="75" spans="1:4" ht="13.5">
       <c r="A75" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
